--- a/Mifos Automation Excels/Client/2550-MS-EI-DB-DL-REC-NOCOM-RNI-CTPD-SAR-MD-TR-2-DATE-VAR-INST-CASH-Makerepayment2.xlsx
+++ b/Mifos Automation Excels/Client/2550-MS-EI-DB-DL-REC-NOCOM-RNI-CTPD-SAR-MD-TR-2-DATE-VAR-INST-CASH-Makerepayment2.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17766"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" tabRatio="696" firstSheet="1" activeTab="2"/>
   </bookViews>
@@ -16,7 +21,7 @@
     <sheet name="Acc_Disbursement1" sheetId="7" r:id="rId7"/>
     <sheet name="Acc_Repayment1" sheetId="6" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -182,7 +187,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -344,6 +349,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -391,7 +399,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -424,9 +432,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -459,6 +484,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -794,10 +836,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R15"/>
+  <dimension ref="A1:S15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -815,12 +857,13 @@
     <col min="11" max="11" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" style="19" customWidth="1"/>
+    <col min="15" max="15" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -860,17 +903,18 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="1"/>
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="7">
@@ -896,8 +940,9 @@
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P2" s="6"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -935,18 +980,19 @@
       <c r="M3" s="6">
         <v>0</v>
       </c>
-      <c r="N3" s="6">
-        <v>0</v>
-      </c>
-      <c r="P3" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q3">
+      <c r="N3" s="6"/>
+      <c r="O3" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="6">
+        <v>0</v>
+      </c>
+      <c r="R3">
         <f>G2*(12%/365)*B3</f>
         <v>73.972602739726028</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="7">
@@ -971,9 +1017,10 @@
       </c>
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
-      <c r="P4" s="6"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O4" s="6"/>
+      <c r="Q4" s="6"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -1011,22 +1058,23 @@
       <c r="M5" s="6">
         <v>0</v>
       </c>
-      <c r="N5" s="6">
-        <v>0</v>
-      </c>
-      <c r="P5" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="21">
+      <c r="N5" s="6"/>
+      <c r="O5" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>0</v>
+      </c>
+      <c r="R5" s="21">
         <f>0+(14/28)</f>
         <v>0.5</v>
       </c>
-      <c r="R5" s="21">
-        <f>G3*1%*Q5</f>
+      <c r="S5" s="21">
+        <f>G3*1%*R5</f>
         <v>20.931250000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -1062,18 +1110,19 @@
       <c r="M6" s="6">
         <v>0</v>
       </c>
-      <c r="N6" s="6">
-        <v>0</v>
-      </c>
-      <c r="P6" s="6">
-        <v>887.72</v>
-      </c>
-      <c r="Q6" s="19">
+      <c r="N6" s="6"/>
+      <c r="O6" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="6">
+        <v>887.72</v>
+      </c>
+      <c r="R6" s="19">
         <f>G5*(12%/365)*B6</f>
         <v>84.811311780821924</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -1109,18 +1158,19 @@
       <c r="M7" s="6">
         <v>0</v>
       </c>
-      <c r="N7" s="6">
-        <v>0</v>
-      </c>
-      <c r="P7" s="6">
-        <v>887.72</v>
-      </c>
-      <c r="Q7" s="19">
+      <c r="N7" s="6"/>
+      <c r="O7" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="6">
+        <v>887.72</v>
+      </c>
+      <c r="R7" s="19">
         <f>G6*(12%/365)*B7</f>
         <v>74.15635068493151</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -1156,18 +1206,19 @@
       <c r="M8" s="6">
         <v>0</v>
       </c>
-      <c r="N8" s="6">
-        <v>0</v>
-      </c>
-      <c r="P8" s="6">
-        <v>887.72</v>
-      </c>
-      <c r="Q8" s="19">
+      <c r="N8" s="6"/>
+      <c r="O8" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="6">
+        <v>887.72</v>
+      </c>
+      <c r="R8" s="19">
         <f>G7*(12%/365)*B8</f>
         <v>68.336603835616444</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>6</v>
       </c>
@@ -1203,18 +1254,19 @@
       <c r="M9" s="6">
         <v>0</v>
       </c>
-      <c r="N9" s="6">
-        <v>0</v>
-      </c>
-      <c r="P9" s="6">
-        <v>887.72</v>
-      </c>
-      <c r="Q9" s="19">
-        <f t="shared" ref="Q9:Q15" si="0">G8*(12%/365)*B9</f>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="6">
+        <v>887.72</v>
+      </c>
+      <c r="R9" s="19">
+        <f t="shared" ref="R9:R15" si="0">G8*(12%/365)*B9</f>
         <v>58.050641095890413</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>7</v>
       </c>
@@ -1250,18 +1302,19 @@
       <c r="M10" s="6">
         <v>0</v>
       </c>
-      <c r="N10" s="6">
-        <v>0</v>
-      </c>
-      <c r="P10" s="6">
-        <v>887.72</v>
-      </c>
-      <c r="Q10" s="19">
+      <c r="N10" s="6"/>
+      <c r="O10" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="6">
+        <v>887.72</v>
+      </c>
+      <c r="R10" s="19">
         <f t="shared" si="0"/>
         <v>51.529847671232879</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>8</v>
       </c>
@@ -1297,18 +1350,19 @@
       <c r="M11" s="6">
         <v>0</v>
       </c>
-      <c r="N11" s="6">
-        <v>0</v>
-      </c>
-      <c r="P11" s="6">
-        <v>887.72</v>
-      </c>
-      <c r="Q11" s="19">
+      <c r="N11" s="6"/>
+      <c r="O11" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="6">
+        <v>887.72</v>
+      </c>
+      <c r="R11" s="19">
         <f t="shared" si="0"/>
         <v>43.007582465753423</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>9</v>
       </c>
@@ -1344,18 +1398,19 @@
       <c r="M12" s="6">
         <v>0</v>
       </c>
-      <c r="N12" s="6">
-        <v>0</v>
-      </c>
-      <c r="P12" s="6">
-        <v>887.72</v>
-      </c>
-      <c r="Q12" s="19">
+      <c r="N12" s="6"/>
+      <c r="O12" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="6">
+        <v>887.72</v>
+      </c>
+      <c r="R12" s="19">
         <f t="shared" si="0"/>
         <v>33.288854794520553</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>10</v>
       </c>
@@ -1391,18 +1446,19 @@
       <c r="M13" s="6">
         <v>0</v>
       </c>
-      <c r="N13" s="6">
-        <v>0</v>
-      </c>
-      <c r="P13" s="6">
-        <v>887.72</v>
-      </c>
-      <c r="Q13" s="19">
+      <c r="N13" s="6"/>
+      <c r="O13" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="6">
+        <v>887.72</v>
+      </c>
+      <c r="R13" s="19">
         <f t="shared" si="0"/>
         <v>25.69032</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>11</v>
       </c>
@@ -1438,18 +1494,19 @@
       <c r="M14" s="6">
         <v>0</v>
       </c>
-      <c r="N14" s="6">
-        <v>0</v>
-      </c>
-      <c r="P14" s="6">
-        <v>887.72</v>
-      </c>
-      <c r="Q14" s="19">
+      <c r="N14" s="6"/>
+      <c r="O14" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="6">
+        <v>887.72</v>
+      </c>
+      <c r="R14" s="19">
         <f t="shared" si="0"/>
         <v>16.359386301369867</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>12</v>
       </c>
@@ -1485,13 +1542,14 @@
       <c r="M15" s="6">
         <v>0</v>
       </c>
-      <c r="N15" s="6">
-        <v>0</v>
-      </c>
-      <c r="P15" s="6">
+      <c r="N15" s="6"/>
+      <c r="O15" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="6">
         <v>795.32</v>
       </c>
-      <c r="Q15" s="19">
+      <c r="R15" s="19">
         <f t="shared" si="0"/>
         <v>8.0239890410958896</v>
       </c>
